--- a/Scrum/Backlogs/Backlog Week 4.xlsx
+++ b/Scrum/Backlogs/Backlog Week 4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\template\Scrum\Retrospective\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\template\Scrum\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06AE72E-8267-4EBF-ADD5-BE1513E14B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E274E-0DDB-4A1C-B311-A9B4E0534FE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Johannes</t>
   </si>
   <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>I am a developer and I need a place to store my users data</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>4 each</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -646,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
@@ -962,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -1059,16 +1059,16 @@
     <row r="14" spans="1:26" ht="52.8">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="26">
         <v>4</v>
@@ -1099,16 +1099,16 @@
     <row r="15" spans="1:26" ht="39.6">
       <c r="A15" s="1"/>
       <c r="B15" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="26">
         <v>4</v>
@@ -1142,13 +1142,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="26">
         <v>4</v>
@@ -1179,22 +1179,22 @@
     <row r="17" spans="1:26" ht="52.8">
       <c r="A17" s="1"/>
       <c r="B17" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="26">
         <v>4</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1219,22 +1219,22 @@
     <row r="18" spans="1:26" ht="26.4">
       <c r="A18" s="1"/>
       <c r="B18" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="26">
         <v>4</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1259,16 +1259,16 @@
     <row r="19" spans="1:26" ht="39.6">
       <c r="A19" s="1"/>
       <c r="B19" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="26">
         <v>4</v>

--- a/Scrum/Backlogs/Backlog Week 4.xlsx
+++ b/Scrum/Backlogs/Backlog Week 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\template\Scrum\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E274E-0DDB-4A1C-B311-A9B4E0534FE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4639C8A8-F5C5-417F-B2CF-E64F497369C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Iteration</t>
   </si>
@@ -76,19 +76,7 @@
     <t>Johannes</t>
   </si>
   <si>
-    <t>I am a developer and I need a place to store my users data</t>
-  </si>
-  <si>
     <t>Nathan</t>
-  </si>
-  <si>
-    <t>Implementing a PostGres database and translate JSON files to SQL queries</t>
-  </si>
-  <si>
-    <t>Im a developer and I need to be to make sure that our customers can interact with the GUI</t>
-  </si>
-  <si>
-    <t>Look into and implement actionlisteners</t>
   </si>
   <si>
     <t xml:space="preserve">Johannes </t>
@@ -97,34 +85,16 @@
     <t>Ardy</t>
   </si>
   <si>
-    <t>Look for a second time into the Spring framework and move the code that we have so far into the Spring framework. I will also look for alternatives</t>
-  </si>
-  <si>
     <t>Lukas</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t xml:space="preserve">Look at all the features and determine how much CO2 our users can save when </t>
-  </si>
-  <si>
-    <t>I am a user and I am interested into how much CO2 I save when doing different actions</t>
-  </si>
-  <si>
     <t>Jari</t>
   </si>
   <si>
-    <t>I am a user and I am interested in an interactive GUI</t>
-  </si>
-  <si>
     <t>Nick</t>
-  </si>
-  <si>
-    <t>Furter testing the GUI and also working on the GUI login</t>
-  </si>
-  <si>
-    <t>Further working on GUI application</t>
   </si>
   <si>
     <t>I am a user and I am interested in an interactive and bug-free GUI</t>
@@ -134,6 +104,24 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Look into the Spring framework and the RestAPI</t>
+  </si>
+  <si>
+    <t>Testing add acount functionality plus API search</t>
+  </si>
+  <si>
+    <t>Login Screen and the Homescreen</t>
+  </si>
+  <si>
+    <t>I am a user and I am interested in an interactive GUI and I need a way to communicate with the client</t>
+  </si>
+  <si>
+    <t>Connecting the database to the GUI</t>
+  </si>
+  <si>
+    <t>I am a developer and I need my data to be stored in a PostGres database</t>
   </si>
 </sst>
 </file>
@@ -227,10 +215,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,6 +267,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -646,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -689,15 +679,15 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>37</v>
+      <c r="D2" s="28" t="s">
+        <v>27</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -720,12 +710,12 @@
     </row>
     <row r="3" spans="1:26" ht="13.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -748,16 +738,16 @@
     </row>
     <row r="4" spans="1:26" ht="13.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -780,16 +770,16 @@
     </row>
     <row r="5" spans="1:26" ht="13.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -814,10 +804,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -840,13 +830,13 @@
     </row>
     <row r="7" spans="1:26" ht="22.8">
       <c r="A7" s="1"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -868,15 +858,15 @@
     </row>
     <row r="8" spans="1:26" ht="22.8">
       <c r="A8" s="1"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -926,16 +916,16 @@
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>6</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -958,16 +948,16 @@
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>36</v>
+      <c r="C11" s="19" t="s">
+        <v>26</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -990,12 +980,12 @@
     </row>
     <row r="12" spans="1:26" ht="13.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1018,22 +1008,22 @@
     </row>
     <row r="13" spans="1:26" ht="34.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1"/>
@@ -1056,29 +1046,29 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="52.8">
+    <row r="14" spans="1:26" ht="39.6">
       <c r="A14" s="1"/>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="26">
+      <c r="F14" s="24">
         <v>4</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="24" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="27"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1098,27 +1088,27 @@
     </row>
     <row r="15" spans="1:26" ht="39.6">
       <c r="A15" s="1"/>
-      <c r="B15" s="25" t="s">
-        <v>21</v>
+      <c r="B15" s="23" t="s">
+        <v>15</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>22</v>
+      <c r="C15" s="23" t="s">
+        <v>28</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>30</v>
+      <c r="E15" s="24" t="s">
+        <v>23</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <v>4</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="24" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1136,24 +1126,24 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="92.4">
+    <row r="16" spans="1:26" ht="39.6">
       <c r="A16" s="1"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>25</v>
+      <c r="C16" s="23" t="s">
+        <v>28</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>24</v>
+      <c r="D16" s="24" t="s">
+        <v>20</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>23</v>
+      <c r="E16" s="24" t="s">
+        <v>19</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="24">
         <v>4</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="24" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="1"/>
@@ -1176,25 +1166,25 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="52.8">
+    <row r="17" spans="1:26" ht="39.6">
       <c r="A17" s="1"/>
-      <c r="B17" s="25" t="s">
-        <v>29</v>
+      <c r="B17" s="23" t="s">
+        <v>15</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>32</v>
+      <c r="D17" s="24" t="s">
+        <v>24</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>26</v>
+      <c r="E17" s="24" t="s">
+        <v>21</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>4</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>27</v>
+      <c r="G17" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1216,25 +1206,25 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="26.4">
+    <row r="18" spans="1:26" ht="39.6">
       <c r="A18" s="1"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>34</v>
+      <c r="C18" s="23" t="s">
+        <v>29</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>19</v>
+      <c r="D18" s="24" t="s">
+        <v>18</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>24</v>
+      <c r="E18" s="24" t="s">
+        <v>20</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>4</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>27</v>
+      <c r="G18" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1256,24 +1246,24 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="39.6">
+    <row r="19" spans="1:26" ht="26.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="25" t="s">
-        <v>35</v>
+      <c r="B19" s="23" t="s">
+        <v>25</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>33</v>
+      <c r="C19" s="23" t="s">
+        <v>30</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>26</v>
+      <c r="D19" s="24" t="s">
+        <v>21</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>32</v>
+      <c r="E19" s="24" t="s">
+        <v>24</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <v>4</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="24" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="1"/>
@@ -1298,12 +1288,12 @@
     </row>
     <row r="20" spans="1:26" ht="13.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1326,12 +1316,12 @@
     </row>
     <row r="21" spans="1:26" ht="13.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1354,12 +1344,12 @@
     </row>
     <row r="22" spans="1:26" ht="13.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1382,12 +1372,12 @@
     </row>
     <row r="23" spans="1:26" ht="13.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1410,12 +1400,12 @@
     </row>
     <row r="24" spans="1:26" ht="13.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1438,12 +1428,12 @@
     </row>
     <row r="25" spans="1:26" ht="13.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1466,12 +1456,12 @@
     </row>
     <row r="26" spans="1:26" ht="13.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1494,12 +1484,12 @@
     </row>
     <row r="27" spans="1:26" ht="13.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1522,12 +1512,12 @@
     </row>
     <row r="28" spans="1:26" ht="13.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1550,12 +1540,12 @@
     </row>
     <row r="29" spans="1:26" ht="13.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1578,12 +1568,12 @@
     </row>
     <row r="30" spans="1:26" ht="13.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>

--- a/Scrum/Backlogs/Backlog Week 4.xlsx
+++ b/Scrum/Backlogs/Backlog Week 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\template\Scrum\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4639C8A8-F5C5-417F-B2CF-E64F497369C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360F2E8E-AAE6-46FB-9C67-613667A2E856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
